--- a/biology/Zoologie/Haut-de-chausses_à_palettes/Haut-de-chausses_à_palettes.xlsx
+++ b/biology/Zoologie/Haut-de-chausses_à_palettes/Haut-de-chausses_à_palettes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Haut-de-chausses_%C3%A0_palettes</t>
+          <t>Haut-de-chausses_à_palettes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ocreatus underwoodii
-Le Haut-de-chausses à palettes (Ocreatus underwoodii) est une espèce d'oiseaux de la famille des Trochilidae. Il est capable de voler latéralement ou en arrière. Lorsque ses ailes battent en vol, elles forment un huit. Quand il est en vol stationnaire, il bat des ailes soixante fois par seconde[1].
+Le Haut-de-chausses à palettes (Ocreatus underwoodii) est une espèce d'oiseaux de la famille des Trochilidae. Il est capable de voler latéralement ou en arrière. Lorsque ses ailes battent en vol, elles forment un huit. Quand il est en vol stationnaire, il bat des ailes soixante fois par seconde.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Haut-de-chausses_%C3%A0_palettes</t>
+          <t>Haut-de-chausses_à_palettes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est présent à travers la partie nord de la cordillère des Andes.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Haut-de-chausses_%C3%A0_palettes</t>
+          <t>Haut-de-chausses_à_palettes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce colibri mesure généralement entre 17 et 23 centimètres. Il pèse environ 3 grammes. Un duvet blanc, qui est sur les cuisses et sur les deux palettes situées à l'extrémité de la queue, donne d'ailleurs le nom à cet oiseau[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce colibri mesure généralement entre 17 et 23 centimètres. Il pèse environ 3 grammes. Un duvet blanc, qui est sur les cuisses et sur les deux palettes situées à l'extrémité de la queue, donne d'ailleurs le nom à cet oiseau.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Haut-de-chausses_%C3%A0_palettes</t>
+          <t>Haut-de-chausses_à_palettes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Haut-de-chausses à palettes se nourrissent d'insectes et d'araignées, mais également de nectar de fleurs parfumées riche en suc. Pour les fleurs, ils préféreront les rouges. Pour se sustenter de ce nectar, ces oiseaux utilisent leur longue langue extensible, tout étant en vol. Du côté des insectes, les femelles en récoltent plusieurs milliers afin de nourrir les poussins. En effet, ils sont riches en protéines et sont essentiels pour la croissance des poussins[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Haut-de-chausses à palettes se nourrissent d'insectes et d'araignées, mais également de nectar de fleurs parfumées riche en suc. Pour les fleurs, ils préféreront les rouges. Pour se sustenter de ce nectar, ces oiseaux utilisent leur longue langue extensible, tout étant en vol. Du côté des insectes, les femelles en récoltent plusieurs milliers afin de nourrir les poussins. En effet, ils sont riches en protéines et sont essentiels pour la croissance des poussins.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Haut-de-chausses_%C3%A0_palettes</t>
+          <t>Haut-de-chausses_à_palettes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour séduire la femelle, le mâle réalise des pirouettes aériennes. Plus elles sont impressionnantes, plus le mâle séduit les femelles. Les mâles s'accouplent avec plusieurs femelles et une femelle en fait de même avec plusieurs mâles. Ce sont les femelles qui construisent le nid pour élever seules les bébés. Par ailleurs, un nid est composé de fibres et de mousses posées sur des brindilles.Il pourra être renforcé et agrandi avec des toiles d'araignées en fonction de la croissance des poussins[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour séduire la femelle, le mâle réalise des pirouettes aériennes. Plus elles sont impressionnantes, plus le mâle séduit les femelles. Les mâles s'accouplent avec plusieurs femelles et une femelle en fait de même avec plusieurs mâles. Ce sont les femelles qui construisent le nid pour élever seules les bébés. Par ailleurs, un nid est composé de fibres et de mousses posées sur des brindilles.Il pourra être renforcé et agrandi avec des toiles d'araignées en fonction de la croissance des poussins.
 </t>
         </is>
       </c>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Haut-de-chausses_%C3%A0_palettes</t>
+          <t>Haut-de-chausses_à_palettes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,10 +656,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses habitats sont les forêts tropicales et subtropicales humides de basses et hautes altitudes d'Amérique du sud. On le trouve aussi sur les sites d'anciennes forêts lourdement dégradées.
-Un mâle protège les fleurs fraîches, dans son territoire, de l'attaque d'autres mâles et de bourdons. Il les chasse en faisant des acrobaties et des piqués hostiles[1].
+Un mâle protège les fleurs fraîches, dans son territoire, de l'attaque d'autres mâles et de bourdons. Il les chasse en faisant des acrobaties et des piqués hostiles.
 </t>
         </is>
       </c>
@@ -650,7 +672,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Haut-de-chausses_%C3%A0_palettes</t>
+          <t>Haut-de-chausses_à_palettes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -668,7 +690,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des huit sous-espèces suivantes :
 Ocreatus underwoodii addae (Bourcier, 1846) ;
